--- a/Lab3/pipeline_1a_byhand.xlsx
+++ b/Lab3/pipeline_1a_byhand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\michele\uni\polito\quarto_anno\primo_semestre\architetture_sistemi_elaborazione\laboratori\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C08A2-6FAB-49D0-8370-9522A6F409CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150145B-D6AF-41A4-90B9-571FDE9F2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="62">
   <si>
     <t>daddui R1, R0, 0</t>
   </si>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4226C58-3B8B-4FE1-9213-2384D9B32338}">
   <dimension ref="A1:EF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" workbookViewId="0">
-      <selection activeCell="CO43" sqref="CO43"/>
+    <sheetView tabSelected="1" topLeftCell="AM7" workbookViewId="0">
+      <selection activeCell="CR43" sqref="CR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -4797,22 +4800,27 @@
       <c r="AQ28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS28" s="1" t="s">
-        <v>53</v>
+      <c r="AR28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS28" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AT28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AU28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AV28" s="1" t="s">
+      <c r="AX28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -4848,7 +4856,7 @@
       <c r="CI28" s="2"/>
       <c r="CJ28" s="2"/>
       <c r="CN28" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO28" s="2"/>
       <c r="CP28" s="2"/>
@@ -4938,26 +4946,30 @@
       <c r="AQ29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR29" s="1" t="s">
+      <c r="AR29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AU29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AT29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU29" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AV29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AY29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -5079,20 +5091,14 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AQ30" s="1"/>
-      <c r="AR30" s="1" t="s">
+      <c r="AT30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AS30" s="1" t="s">
+      <c r="AU30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AT30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU30" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AV30" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="AW30" s="1" t="s">
         <v>52</v>
@@ -5148,14 +5154,18 @@
       <c r="BN30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BO30" s="2" t="s">
+      <c r="BO30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BP30" s="2" t="s">
+      <c r="BR30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BQ30" s="2"/>
-      <c r="BR30" s="2"/>
       <c r="BS30" s="2"/>
       <c r="BT30" s="2"/>
       <c r="BU30" s="2"/>
@@ -5164,6 +5174,8 @@
       <c r="BX30" s="2"/>
       <c r="BY30" s="2"/>
       <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
       <c r="CH30" s="2"/>
       <c r="CJ30" s="2"/>
       <c r="CN30" s="4">
@@ -5255,35 +5267,29 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1" t="s">
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AT31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AW31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AY31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AZ31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BA31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB31" s="2" t="s">
+      <c r="BA31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BC31" s="2" t="s">
@@ -5326,13 +5332,17 @@
         <v>19</v>
       </c>
       <c r="BP31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BQ31" s="2" t="s">
+      <c r="BS31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BR31" s="2"/>
-      <c r="BS31" s="2"/>
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
       <c r="BV31" s="2"/>
@@ -5340,6 +5350,8 @@
       <c r="BX31" s="2"/>
       <c r="BY31" s="2"/>
       <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
       <c r="CH31" s="2"/>
       <c r="CJ31" s="2"/>
       <c r="CN31" s="4">
@@ -5431,28 +5443,22 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
-      <c r="AU32" s="1" t="s">
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AV32" s="1" t="s">
+      <c r="AX32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AY32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AZ32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA32" s="2" t="s">
+      <c r="AZ32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BB32" s="2" t="s">
@@ -5495,10 +5501,10 @@
         <v>19</v>
       </c>
       <c r="BO32" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BP32" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BQ32" s="2" t="s">
         <v>23</v>
@@ -5519,13 +5525,19 @@
         <v>23</v>
       </c>
       <c r="BW32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BX32" s="2" t="s">
+      <c r="BZ32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BY32" s="2"/>
-      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
       <c r="CJ32" s="2"/>
       <c r="CN32" s="4">
         <v>7</v>
@@ -5616,26 +5628,20 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="1" t="s">
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AW33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AY33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AZ33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA33" s="2" t="s">
+      <c r="AZ33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BB33" s="2" t="s">
@@ -5678,17 +5684,17 @@
         <v>19</v>
       </c>
       <c r="BO33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BP33" s="2" t="s">
+      <c r="BR33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BQ33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BR33" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="BS33" s="2" t="s">
         <v>19</v>
       </c>
@@ -5705,12 +5711,18 @@
         <v>19</v>
       </c>
       <c r="BX33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BY33" s="2" t="s">
+      <c r="CA33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BZ33" s="2"/>
+      <c r="CB33" s="2"/>
       <c r="CJ33" s="2"/>
       <c r="CN33" s="4">
         <v>1</v>
@@ -5801,16 +5813,14 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
@@ -5824,18 +5834,14 @@
       <c r="BL34" s="2"/>
       <c r="BM34" s="2"/>
       <c r="BN34" s="2"/>
-      <c r="BO34" s="2" t="s">
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BP34" s="2" t="s">
+      <c r="BR34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BQ34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BR34" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="BS34" s="2" t="s">
         <v>19</v>
       </c>
@@ -5845,22 +5851,28 @@
       <c r="BU34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BV34" s="3" t="s">
+      <c r="BV34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="BW34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BX34" s="2" t="s">
+      <c r="BX34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BY34" s="2" t="s">
+      <c r="CA34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BZ34" s="2" t="s">
+      <c r="CB34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CA34" s="2"/>
+      <c r="CC34" s="2"/>
       <c r="CJ34" s="2"/>
       <c r="CN34" s="4">
         <v>1</v>
@@ -5951,16 +5963,14 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="8"/>
       <c r="AT35" s="8"/>
       <c r="AU35" s="8"/>
       <c r="AV35" s="8"/>
       <c r="AW35" s="8"/>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="9"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
       <c r="BD35" s="9"/>
@@ -5975,15 +5985,11 @@
       <c r="BM35" s="9"/>
       <c r="BN35" s="9"/>
       <c r="BO35" s="9"/>
-      <c r="BP35" s="9" t="s">
+      <c r="BP35" s="9"/>
+      <c r="BQ35" s="9"/>
+      <c r="BR35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BQ35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="BR35" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="BS35" s="9" t="s">
         <v>19</v>
       </c>
@@ -5993,22 +5999,28 @@
       <c r="BU35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="BV35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BX35" s="9" t="s">
+      <c r="BV35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BY35" s="9" t="s">
+      <c r="CA35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BZ35" s="9" t="s">
+      <c r="CB35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="CA35" s="9" t="s">
+      <c r="CC35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="CJ35" s="9"/>
@@ -6106,8 +6118,6 @@
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
       <c r="AV36" s="5"/>
@@ -6121,8 +6131,8 @@
       <c r="BD36" s="5"/>
       <c r="BE36" s="5"/>
       <c r="BF36" s="5"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
@@ -6136,22 +6146,24 @@
       <c r="BS36" s="6"/>
       <c r="BT36" s="6"/>
       <c r="BU36" s="6"/>
-      <c r="BX36" s="6" t="s">
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="BZ36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="BY36" s="6" t="s">
+      <c r="CA36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BZ36" s="6" t="s">
+      <c r="CB36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="CA36" s="6" t="s">
+      <c r="CC36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="CB36" s="6" t="s">
+      <c r="CD36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="CC36" s="6"/>
+      <c r="CE36" s="6"/>
       <c r="CN36" s="7">
         <v>1</v>
       </c>
@@ -6246,8 +6258,6 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -6261,8 +6271,8 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
       <c r="BI37" s="2"/>
       <c r="BJ37" s="2"/>
       <c r="BK37" s="2"/>
@@ -6276,20 +6286,22 @@
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
       <c r="BU37" s="2"/>
-      <c r="BX37" s="2"/>
-      <c r="BY37" s="2" t="s">
+      <c r="BV37" s="2"/>
+      <c r="BW37" s="2"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BZ37" s="2" t="s">
+      <c r="CB37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CA37" s="2" t="s">
+      <c r="CC37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="CB37" s="2" t="s">
+      <c r="CD37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="CC37" s="2" t="s">
+      <c r="CE37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="CN37" s="4">
@@ -6343,19 +6355,19 @@
     <row r="43" spans="1:136" x14ac:dyDescent="0.2">
       <c r="CO43" s="3">
         <f>SUM(CN1:CN8)+32*SUM(CN9:CN35)+SUM(CN36:CN37)+32*SUM(Odd!CZ9:CZ39) + 63</f>
-        <v>4877</v>
+        <v>4973</v>
       </c>
       <c r="CP43" s="3">
-        <f>8+32*(36-9+1 - 1)+32*(40-9+1-1)+1+2</f>
-        <v>1867</v>
+        <f>8+32*(35-9+1 -1)+32*(39-9+1-1)+2</f>
+        <v>1802</v>
       </c>
       <c r="CQ43" s="11">
         <f>CO43/CP43</f>
-        <v>2.6122121049812534</v>
+        <v>2.7597114317425082</v>
       </c>
       <c r="CR43" s="3">
         <f>1/CQ43</f>
-        <v>0.38281730572072992</v>
+        <v>0.36235672632213956</v>
       </c>
     </row>
     <row r="44" spans="1:136" x14ac:dyDescent="0.2">
@@ -6381,8 +6393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER43"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="AG21" sqref="Z21:AG21"/>
+    <sheetView topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CU36" sqref="CU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -10222,24 +10234,36 @@
       <c r="Y24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AG24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AI24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -10381,27 +10405,21 @@
       <c r="V25" s="2"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AG25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -10542,28 +10560,22 @@
       <c r="V26" s="2"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1" t="s">
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AH26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AI26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AK26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -10703,29 +10715,23 @@
       <c r="V27" s="2"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AI27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AK27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AL27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -10864,30 +10870,24 @@
       <c r="V28" s="2"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AK28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AL28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AM28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
@@ -11029,30 +11029,12 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AK29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AL29" s="1" t="s">
         <v>19</v>
       </c>
@@ -11093,7 +11075,7 @@
         <v>19</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ29" s="1" t="s">
         <v>23</v>
@@ -11117,12 +11099,14 @@
         <v>23</v>
       </c>
       <c r="BG29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BH29" s="3" t="s">
+      <c r="BI29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
@@ -11136,7 +11120,7 @@
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
       <c r="BV29" s="1"/>
-      <c r="BW29" s="2"/>
+      <c r="BW29" s="1"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
       <c r="BZ29" s="2"/>
@@ -11158,14 +11142,9 @@
       <c r="CP29" s="2"/>
       <c r="CQ29" s="2"/>
       <c r="CR29" s="2"/>
-      <c r="CT29" s="2"/>
-      <c r="CU29" s="2"/>
-      <c r="CV29" s="2"/>
-      <c r="CW29" s="2"/>
-      <c r="CX29" s="2"/>
-      <c r="CY29" s="2"/>
+      <c r="CS29" s="2"/>
       <c r="CZ29" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DA29" s="2"/>
       <c r="DB29" s="2"/>
@@ -11242,92 +11221,78 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
-      <c r="AE30" s="13" t="s">
+      <c r="AK30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AF30" s="13" t="s">
+      <c r="AL30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ30" s="15" t="s">
         <v>2</v>
-      </c>
-      <c r="AG30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ30" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="BA30" s="13" t="s">
         <v>53</v>
       </c>
       <c r="BB30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BC30" s="13" t="s">
+      <c r="BE30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
       <c r="BF30" s="13"/>
       <c r="BG30" s="13"/>
       <c r="BH30" s="13"/>
       <c r="BI30" s="13"/>
-      <c r="BS30" s="13"/>
+      <c r="BJ30" s="13"/>
       <c r="BT30" s="13"/>
       <c r="BU30" s="13"/>
       <c r="BV30" s="13"/>
-      <c r="BW30" s="14"/>
+      <c r="BW30" s="13"/>
       <c r="BX30" s="14"/>
       <c r="BY30" s="14"/>
       <c r="BZ30" s="14"/>
@@ -11349,12 +11314,7 @@
       <c r="CP30" s="14"/>
       <c r="CQ30" s="14"/>
       <c r="CR30" s="14"/>
-      <c r="CT30" s="14"/>
-      <c r="CU30" s="14"/>
-      <c r="CV30" s="14"/>
-      <c r="CW30" s="14"/>
-      <c r="CX30" s="14"/>
-      <c r="CY30" s="14"/>
+      <c r="CS30" s="14"/>
       <c r="CZ30" s="16">
         <v>0</v>
       </c>
@@ -11433,73 +11393,27 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1" t="s">
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BA31" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BB31" s="1" t="s">
         <v>19</v>
       </c>
@@ -11512,11 +11426,11 @@
       <c r="BE31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BF31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>53</v>
+      <c r="BF31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG31" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="BH31" s="1" t="s">
         <v>53</v>
@@ -11525,12 +11439,14 @@
         <v>53</v>
       </c>
       <c r="BJ31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
@@ -11541,7 +11457,7 @@
       <c r="BT31" s="1"/>
       <c r="BU31" s="1"/>
       <c r="BV31" s="1"/>
-      <c r="BW31" s="2"/>
+      <c r="BW31" s="1"/>
       <c r="BX31" s="2"/>
       <c r="BY31" s="2"/>
       <c r="BZ31" s="2"/>
@@ -11563,12 +11479,7 @@
       <c r="CP31" s="2"/>
       <c r="CQ31" s="2"/>
       <c r="CR31" s="2"/>
-      <c r="CT31" s="2"/>
-      <c r="CU31" s="2"/>
-      <c r="CV31" s="2"/>
-      <c r="CW31" s="2"/>
-      <c r="CX31" s="2"/>
-      <c r="CY31" s="2"/>
+      <c r="CS31" s="2"/>
       <c r="CZ31" s="4">
         <v>3</v>
       </c>
@@ -11647,12 +11558,6 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -11669,12 +11574,10 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
-      <c r="AZ32" s="1" t="s">
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BA32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BB32" s="1" t="s">
         <v>19</v>
       </c>
@@ -11691,16 +11594,16 @@
         <v>19</v>
       </c>
       <c r="BG32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BH32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BI32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BJ32" s="1" t="s">
-        <v>53</v>
+      <c r="BJ32" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="BK32" s="1" t="s">
         <v>53</v>
@@ -11709,12 +11612,14 @@
         <v>53</v>
       </c>
       <c r="BM32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BN32" s="1" t="s">
+      <c r="BO32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
@@ -11744,12 +11649,6 @@
       <c r="CP32" s="2"/>
       <c r="CQ32" s="2"/>
       <c r="CR32" s="2"/>
-      <c r="CT32" s="2"/>
-      <c r="CU32" s="2"/>
-      <c r="CV32" s="2"/>
-      <c r="CW32" s="2"/>
-      <c r="CX32" s="2"/>
-      <c r="CY32" s="2"/>
       <c r="CZ32" s="4">
         <v>3</v>
       </c>
@@ -11828,12 +11727,6 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -11857,34 +11750,34 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
-      <c r="BG33" s="1" t="s">
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BH33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BI33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BJ33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BK33" s="1" t="s">
+      <c r="BL33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BL33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BM33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BN33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BO33" s="1" t="s">
+      <c r="BP33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
       <c r="BS33" s="1"/>
@@ -11913,12 +11806,6 @@
       <c r="CP33" s="2"/>
       <c r="CQ33" s="2"/>
       <c r="CR33" s="2"/>
-      <c r="CT33" s="2"/>
-      <c r="CU33" s="2"/>
-      <c r="CV33" s="2"/>
-      <c r="CW33" s="2"/>
-      <c r="CX33" s="2"/>
-      <c r="CY33" s="2"/>
       <c r="CZ33" s="4">
         <v>1</v>
       </c>
@@ -11997,12 +11884,6 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -12029,17 +11910,14 @@
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
-      <c r="BJ34" s="1" t="s">
+      <c r="BK34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BK34" s="1" t="s">
+      <c r="BL34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BL34" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BM34" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="BN34" s="1" t="s">
         <v>52</v>
@@ -12098,13 +11976,15 @@
       <c r="CF34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CG34" s="2" t="s">
+      <c r="CG34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CH34" s="2" t="s">
+      <c r="CI34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CI34" s="2"/>
       <c r="CJ34" s="2"/>
       <c r="CK34" s="2"/>
       <c r="CL34" s="2"/>
@@ -12114,8 +11994,7 @@
       <c r="CP34" s="2"/>
       <c r="CQ34" s="2"/>
       <c r="CR34" s="2"/>
-      <c r="CT34" s="2"/>
-      <c r="CX34" s="2"/>
+      <c r="CS34" s="2"/>
       <c r="CZ34" s="4">
         <v>19</v>
       </c>
@@ -12194,12 +12073,6 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -12226,26 +12099,23 @@
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1" t="s">
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BL35" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BM35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BN35" s="1" t="s">
+      <c r="BO35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BO35" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BP35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BQ35" s="2" t="s">
+      <c r="BQ35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BR35" s="2" t="s">
@@ -12297,12 +12167,14 @@
         <v>19</v>
       </c>
       <c r="CH35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CI35" s="2" t="s">
+      <c r="CJ35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CJ35" s="2"/>
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
       <c r="CM35" s="2"/>
@@ -12311,6 +12183,7 @@
       <c r="CP35" s="2"/>
       <c r="CQ35" s="2"/>
       <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
       <c r="CZ35" s="4">
         <v>1</v>
       </c>
@@ -12389,12 +12262,6 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
@@ -12421,25 +12288,22 @@
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
-      <c r="BM36" s="1" t="s">
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BN36" s="1" t="s">
+      <c r="BO36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BO36" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BP36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BQ36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BR36" s="2" t="s">
+      <c r="BR36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BS36" s="2" t="s">
@@ -12485,7 +12349,7 @@
         <v>19</v>
       </c>
       <c r="CG36" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="CH36" s="2" t="s">
         <v>23</v>
@@ -12509,14 +12373,16 @@
         <v>23</v>
       </c>
       <c r="CO36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CP36" s="2" t="s">
+      <c r="CQ36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CQ36" s="2"/>
       <c r="CR36" s="2"/>
-      <c r="CT36" s="2"/>
+      <c r="CS36" s="2"/>
       <c r="CZ36" s="4">
         <v>7</v>
       </c>
@@ -12595,12 +12461,6 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
@@ -12627,23 +12487,20 @@
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
-      <c r="BN37" s="1" t="s">
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BO37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BP37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BQ37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BR37" s="2" t="s">
+      <c r="BR37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BS37" s="2" t="s">
@@ -12689,14 +12546,14 @@
         <v>19</v>
       </c>
       <c r="CG37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CH37" s="2" t="s">
+      <c r="CI37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="CI37" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="CJ37" s="2" t="s">
         <v>19</v>
       </c>
@@ -12716,13 +12573,15 @@
         <v>19</v>
       </c>
       <c r="CP37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CQ37" s="2" t="s">
+      <c r="CR37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CR37" s="2"/>
-      <c r="CT37" s="2"/>
+      <c r="CS37" s="2"/>
       <c r="CZ37" s="4">
         <v>1</v>
       </c>
@@ -12801,12 +12660,6 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -12833,7 +12686,6 @@
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
@@ -12841,7 +12693,7 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
-      <c r="BR38" s="2"/>
+      <c r="BR38" s="1"/>
       <c r="BS38" s="2"/>
       <c r="BT38" s="2"/>
       <c r="BU38" s="2"/>
@@ -12856,15 +12708,13 @@
       <c r="CD38" s="2"/>
       <c r="CE38" s="2"/>
       <c r="CF38" s="2"/>
-      <c r="CG38" s="2" t="s">
+      <c r="CG38" s="2"/>
+      <c r="CH38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CH38" s="2" t="s">
+      <c r="CI38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CI38" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="CJ38" s="2" t="s">
         <v>19</v>
       </c>
@@ -12877,22 +12727,25 @@
       <c r="CM38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CN38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CO38" s="2" t="s">
+      <c r="CN38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="CP38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="CQ38" s="2" t="s">
+      <c r="CR38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CR38" s="2" t="s">
+      <c r="CS38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CS38" s="2"/>
+      <c r="CT38" s="2"/>
       <c r="CZ38" s="4">
         <v>1</v>
       </c>
@@ -12971,12 +12824,6 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
@@ -13003,7 +12850,6 @@
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
       <c r="BI39" s="8"/>
-      <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
       <c r="BM39" s="8"/>
@@ -13011,7 +12857,7 @@
       <c r="BO39" s="8"/>
       <c r="BP39" s="8"/>
       <c r="BQ39" s="8"/>
-      <c r="BR39" s="9"/>
+      <c r="BR39" s="8"/>
       <c r="BS39" s="9"/>
       <c r="BT39" s="9"/>
       <c r="BU39" s="9"/>
@@ -13027,12 +12873,10 @@
       <c r="CE39" s="9"/>
       <c r="CF39" s="9"/>
       <c r="CG39" s="9"/>
-      <c r="CH39" s="9" t="s">
+      <c r="CH39" s="9"/>
+      <c r="CI39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="CI39" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="CJ39" s="9" t="s">
         <v>19</v>
       </c>
@@ -13045,22 +12889,25 @@
       <c r="CM39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="CN39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CO39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP39" s="9" t="s">
+      <c r="CN39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="CQ39" s="9" t="s">
+      <c r="CR39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="CR39" s="9" t="s">
+      <c r="CS39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="CS39" s="9" t="s">
+      <c r="CT39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="CZ39" s="10">
@@ -13207,22 +13054,22 @@
       <c r="CM40" s="6"/>
       <c r="CN40" s="6"/>
       <c r="CO40" s="6"/>
-      <c r="CP40" s="6" t="s">
+      <c r="CQ40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="CQ40" s="6" t="s">
+      <c r="CR40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CR40" s="6" t="s">
+      <c r="CS40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="CS40" s="6" t="s">
+      <c r="CT40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="CT40" s="6" t="s">
+      <c r="CU40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="CU40" s="6"/>
+      <c r="CV40" s="6"/>
       <c r="CZ40" s="7">
         <v>1</v>
       </c>
@@ -13367,20 +13214,20 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
       <c r="CO41" s="2"/>
-      <c r="CP41" s="2"/>
-      <c r="CQ41" s="2" t="s">
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CR41" s="2" t="s">
+      <c r="CS41" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="CS41" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="CT41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="CU41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="CV41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="CZ41" s="4">
@@ -13434,7 +13281,7 @@
     <row r="42" spans="1:148" x14ac:dyDescent="0.2">
       <c r="CZ42" s="3">
         <f>SUM(CZ1:CZ8)+32*SUM(CZ9:CZ39)+1+SUM(CZ40:CZ41)</f>
-        <v>2703</v>
+        <v>2735</v>
       </c>
       <c r="DA42" s="3">
         <f>8+64*(46-9+1)+1+2</f>
@@ -13442,11 +13289,11 @@
       </c>
       <c r="DB42" s="11">
         <f>CZ42/DA42</f>
-        <v>1.1064265247646337</v>
+        <v>1.1195251739664347</v>
       </c>
       <c r="DC42" s="3">
         <f>64*COUNTIF(B9:CY39,"=s")</f>
-        <v>10112</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="43" spans="1:148" x14ac:dyDescent="0.2">
